--- a/artifacts/03-CHAT-Framework-Worksheet.xlsx
+++ b/artifacts/03-CHAT-Framework-Worksheet.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CHAT Components" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Example" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="📋 Instructions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="🔺 CHAT Components" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="📖 Example" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="12">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,27 +28,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="001C2A4A"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="001C2A4A"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="002C3E50"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="001C2A4A"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="0027AE60"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <color rgb="002C3E50"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="16"/>
     </font>
     <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <name val="Calibri"/>
+      <i val="1"/>
+      <color rgb="002C3E50"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <color rgb="001C2A4A"/>
+      <sz val="13"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="18">
     <fill>
       <patternFill/>
     </fill>
@@ -57,20 +101,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00101C42"/>
-        <bgColor rgb="00101C42"/>
+        <fgColor rgb="0027AE60"/>
+        <bgColor rgb="0027AE60"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
+        <fgColor rgb="001C2A4A"/>
+        <bgColor rgb="001C2A4A"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9E2F3"/>
-        <bgColor rgb="00D9E2F3"/>
+        <fgColor rgb="003498DB"/>
+        <bgColor rgb="003498DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D6EAF8"/>
+        <bgColor rgb="00D6EAF8"/>
       </patternFill>
     </fill>
     <fill>
@@ -81,12 +131,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="00E67E22"/>
+        <bgColor rgb="00E67E22"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAE5D3"/>
+        <bgColor rgb="00FAE5D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5F4E6"/>
+        <bgColor rgb="00D5F4E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F39C12"/>
+        <bgColor rgb="00F39C12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FCF3CF"/>
+        <bgColor rgb="00FCF3CF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E74C3C"/>
+        <bgColor rgb="00E74C3C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FADBD8"/>
+        <bgColor rgb="00FADBD8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009B59B6"/>
+        <bgColor rgb="009B59B6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EBDEF0"/>
+        <bgColor rgb="00EBDEF0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007F8C8D"/>
+        <bgColor rgb="007F8C8D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D5D8DC"/>
+        <bgColor rgb="00D5D8DC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -95,41 +205,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="0034495E"/>
+      </left>
+      <right style="thin">
+        <color rgb="0034495E"/>
+      </right>
+      <top style="thin">
+        <color rgb="0034495E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="0034495E"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="0034495E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="0034495E"/>
+      </right>
+      <top style="thin">
+        <color rgb="0034495E"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="0034495E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="0034495E"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="0034495E"/>
+      </right>
+      <top style="thin">
+        <color rgb="0034495E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="0034495E"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -495,7 +696,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,142 +704,328 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="80" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="60" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1" ht="35" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>CHAT Business Model Framework - Instructions</t>
+          <t>CHAT Business Model Framework</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Welcome to the CHAT Business Model Framework!</t>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Business-Ready Kits for South African SMMEs</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>This template will help you visualize your business model using the 7 components of CHAT:</t>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>Welcome to CHAT!</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr"/>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>CHAT is an alternative to the Business Model Canvas - simpler and more visual.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>1. Subject - Who you are (your business)</t>
-        </is>
-      </c>
+      <c r="A7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>2. Object - What you have (assets &amp; resources)</t>
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>🔺 The CHAT Triangle:</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>3. Outcome - What you produce (products/services)</t>
-        </is>
-      </c>
+      <c r="A9" s="3" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>4. Differentiator - What makes you unique (secret sauce)</t>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Subject</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Your company/business</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>5. Barriers to Entry - What protects you (competitive advantages)</t>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>Object</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Assets you buy (not make)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>6. Customer - Who you serve (user, payer, community)</t>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>Outcome</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Final product/service</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>7. Key Activities - How you do it (division of labor)</t>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Differentiator</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Your secret sauce</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>Barriers to Entry</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>What stops competitors</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>How to use this template:</t>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Customer</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Who pays, uses, benefits</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Key Activities</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>What you actually do</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>Step 1: Read the PDF guide to understand each component</t>
-        </is>
-      </c>
+      <c r="A17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>Step 2: Complete the 'CHAT Components' worksheet</t>
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>📊 What's Inside:</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Step 3: Review the 'Visual Diagram' worksheet</t>
-        </is>
-      </c>
+      <c r="A19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Step 4: Use the 'Example' worksheet for inspiration</t>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Tab 1: Instructions</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>You are here! Read this first.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Tab 2: CHAT Components</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Complete all 7 components for your business.</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>Good luck mapping your business model!</t>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>Tab 3: Example</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>See Sourdough Sanctuary's CHAT.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>🚀 How to Use:</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>Step 1</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Go to the 'CHAT Components' tab</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>Step 2</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Answer the questions for each of the 7 components</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>Step 3</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Use the PowerPoint to visualize your CHAT triangle</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>Step 4</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Share with your team for feedback</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>💡 Tips:</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Start with Subject, Object, and Outcome (the core triangle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Then add Differentiator and Barriers to Entry</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Finally complete Customer and Key Activities</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Be specific - avoid generic statements</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="17">
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A25:F25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -650,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,129 +1045,309 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CHAT Business Model Framework - Your Business</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Your Answer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>1. Subject</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Who are you? (Your business, team, values, mission)</t>
-        </is>
-      </c>
-      <c r="C4" s="7" t="inlineStr"/>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2. Object</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>What do you have? (Assets, resources you buy/acquire)</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr"/>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>3. Outcome</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>What do you produce? (Final product/service)</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr"/>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>4. Differentiator</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>What makes you unique? (Your secret sauce, niche)</t>
-        </is>
-      </c>
-      <c r="C7" s="7" t="inlineStr"/>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>5. Barriers to Entry</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>What protects you? (Competitive advantages)</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>6. Customer</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Who do you serve? (User, Payer, Community)</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>7. Key Activities</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>How do you do it? (Core tasks, division of labor)</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr"/>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Your CHAT Business Model</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="25" customHeight="1">
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>🔵 SUBJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>What is your company name?</t>
+        </is>
+      </c>
+      <c r="B4" s="9" t="inlineStr"/>
+      <c r="C4" s="10" t="n"/>
+      <c r="D4" s="11" t="n"/>
+    </row>
+    <row r="5" ht="25" customHeight="1">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>What industry are you in?</t>
+        </is>
+      </c>
+      <c r="B5" s="9" t="inlineStr"/>
+      <c r="C5" s="10" t="n"/>
+      <c r="D5" s="11" t="n"/>
+    </row>
+    <row r="6" ht="25" customHeight="1">
+      <c r="A6" s="8" t="inlineStr">
+        <is>
+          <t>What is your core business?</t>
+        </is>
+      </c>
+      <c r="B6" s="9" t="inlineStr"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="11" t="n"/>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="A8" s="12" t="inlineStr">
+        <is>
+          <t>🟠 OBJECT (Assets)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1">
+      <c r="A9" s="13" t="inlineStr">
+        <is>
+          <t>What do you BUY (not make)?</t>
+        </is>
+      </c>
+      <c r="B9" s="9" t="inlineStr"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="11" t="n"/>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="A10" s="13" t="inlineStr">
+        <is>
+          <t>What raw materials or inputs do you purchase?</t>
+        </is>
+      </c>
+      <c r="B10" s="9" t="inlineStr"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="11" t="n"/>
+    </row>
+    <row r="11" ht="25" customHeight="1">
+      <c r="A11" s="13" t="inlineStr">
+        <is>
+          <t>What equipment or tools do you use?</t>
+        </is>
+      </c>
+      <c r="B11" s="9" t="inlineStr"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="11" t="n"/>
+    </row>
+    <row r="13" ht="25" customHeight="1">
+      <c r="A13" s="14" t="inlineStr">
+        <is>
+          <t>🟢 OUTCOME</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="A14" s="15" t="inlineStr">
+        <is>
+          <t>What is your final product or service?</t>
+        </is>
+      </c>
+      <c r="B14" s="9" t="inlineStr"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="11" t="n"/>
+    </row>
+    <row r="15" ht="25" customHeight="1">
+      <c r="A15" s="15" t="inlineStr">
+        <is>
+          <t>What does the customer receive?</t>
+        </is>
+      </c>
+      <c r="B15" s="9" t="inlineStr"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="11" t="n"/>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="A16" s="15" t="inlineStr">
+        <is>
+          <t>What problem does it solve?</t>
+        </is>
+      </c>
+      <c r="B16" s="9" t="inlineStr"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="11" t="n"/>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="A18" s="16" t="inlineStr">
+        <is>
+          <t>🟡 DIFFERENTIATOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="25" customHeight="1">
+      <c r="A19" s="17" t="inlineStr">
+        <is>
+          <t>What makes you unique?</t>
+        </is>
+      </c>
+      <c r="B19" s="9" t="inlineStr"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="11" t="n"/>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="A20" s="17" t="inlineStr">
+        <is>
+          <t>What is your secret sauce or niche?</t>
+        </is>
+      </c>
+      <c r="B20" s="9" t="inlineStr"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="11" t="n"/>
+    </row>
+    <row r="21" ht="25" customHeight="1">
+      <c r="A21" s="17" t="inlineStr">
+        <is>
+          <t>Why do customers choose you over competitors?</t>
+        </is>
+      </c>
+      <c r="B21" s="9" t="inlineStr"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="11" t="n"/>
+    </row>
+    <row r="23" ht="25" customHeight="1">
+      <c r="A23" s="18" t="inlineStr">
+        <is>
+          <t>🔴 BARRIERS TO ENTRY</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1">
+      <c r="A24" s="19" t="inlineStr">
+        <is>
+          <t>What stops competitors from copying you?</t>
+        </is>
+      </c>
+      <c r="B24" s="9" t="inlineStr"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="11" t="n"/>
+    </row>
+    <row r="25" ht="25" customHeight="1">
+      <c r="A25" s="19" t="inlineStr">
+        <is>
+          <t>Do you have patents, licenses, or exclusive contracts?</t>
+        </is>
+      </c>
+      <c r="B25" s="9" t="inlineStr"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="11" t="n"/>
+    </row>
+    <row r="26" ht="25" customHeight="1">
+      <c r="A26" s="19" t="inlineStr">
+        <is>
+          <t>What advantages are hard to replicate?</t>
+        </is>
+      </c>
+      <c r="B26" s="9" t="inlineStr"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="11" t="n"/>
+    </row>
+    <row r="28" ht="25" customHeight="1">
+      <c r="A28" s="20" t="inlineStr">
+        <is>
+          <t>🟣 CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="25" customHeight="1">
+      <c r="A29" s="21" t="inlineStr">
+        <is>
+          <t>Who pays for your product/service?</t>
+        </is>
+      </c>
+      <c r="B29" s="9" t="inlineStr"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="11" t="n"/>
+    </row>
+    <row r="30" ht="25" customHeight="1">
+      <c r="A30" s="21" t="inlineStr">
+        <is>
+          <t>Who uses it?</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="11" t="n"/>
+    </row>
+    <row r="31" ht="25" customHeight="1">
+      <c r="A31" s="21" t="inlineStr">
+        <is>
+          <t>Who benefits from it? (may be different people)</t>
+        </is>
+      </c>
+      <c r="B31" s="9" t="inlineStr"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="11" t="n"/>
+    </row>
+    <row r="33" ht="25" customHeight="1">
+      <c r="A33" s="22" t="inlineStr">
+        <is>
+          <t>⚫ KEY ACTIVITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="25" customHeight="1">
+      <c r="A34" s="23" t="inlineStr">
+        <is>
+          <t>What are the main things you DO?</t>
+        </is>
+      </c>
+      <c r="B34" s="9" t="inlineStr"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="11" t="n"/>
+    </row>
+    <row r="35" ht="25" customHeight="1">
+      <c r="A35" s="23" t="inlineStr">
+        <is>
+          <t>How is work divided in your business?</t>
+        </is>
+      </c>
+      <c r="B35" s="9" t="inlineStr"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="25" customHeight="1">
+      <c r="A36" s="23" t="inlineStr">
+        <is>
+          <t>What processes transform Object into Outcome?</t>
+        </is>
+      </c>
+      <c r="B36" s="9" t="inlineStr"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="11" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+  <mergeCells count="29">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -792,7 +1359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,157 +1367,176 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
-    <col width="65" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="70" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>CHAT Example: Sourdough Sanctuary (Cape Town Bakery)</t>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="24" t="inlineStr">
+        <is>
+          <t>Example: Sourdough Sanctuary (Cape Town Bakery)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>Component</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>Sourdough Sanctuary Example</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="60" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>1. Subject</t>
-        </is>
-      </c>
-      <c r="B4" s="6" t="inlineStr">
-        <is>
-          <t>Who are you?</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>Artisanal bakery team in Cape Town committed to traditional methods and quality ingredients</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="60" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>2. Object</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>What do you have?</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>Stone-ground flour from local mill, specialized ovens, unique sourdough starter, prime location</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="60" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>3. Outcome</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>What do you produce?</t>
-        </is>
-      </c>
-      <c r="C6" s="8" t="inlineStr">
-        <is>
-          <t>Range of artisanal sourdough breads, pastries, sandwiches</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="60" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>4. Differentiator</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>What makes you unique?</t>
-        </is>
-      </c>
-      <c r="C7" s="8" t="inlineStr">
-        <is>
-          <t>100% authentic 72-hour fermentation process creating unique flavor</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>5. Barriers to Entry</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>What protects you?</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Complex process, loyal customer base, exclusive supplier relationships, prime location</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>6. Customer</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Who do you serve?</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Health-conscious foodies (users), families (payers), Cape Town foodie community</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>7. Key Activities</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>How do you do it?</t>
-        </is>
-      </c>
-      <c r="C10" s="8" t="inlineStr">
-        <is>
-          <t>Sourcing, mixing, 72-hour fermentation, baking, quality control, customer service, marketing</t>
+      <c r="A3" s="25" t="inlineStr">
+        <is>
+          <t>See how a real SA business completed their CHAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="26" t="inlineStr">
+        <is>
+          <t>🔵 SUBJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" s="27" t="inlineStr">
+        <is>
+          <t>Sourdough Sanctuary, artisan bakery in Sea Point, Cape Town</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="26" t="inlineStr">
+        <is>
+          <t>🟠 OBJECT</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" s="27" t="inlineStr">
+        <is>
+          <t>Organic flour, natural yeast cultures, ovens, packaging</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="26" t="inlineStr">
+        <is>
+          <t>🟢 OUTCOME</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" s="27" t="inlineStr">
+        <is>
+          <t>Fresh artisan sourdough bread and pastries</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="26" t="inlineStr">
+        <is>
+          <t>🟡 DIFFERENTIATOR</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" s="27" t="inlineStr">
+        <is>
+          <t>Only bakery in Cape Town using 100% natural fermentation (no commercial yeast)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="26" t="inlineStr">
+        <is>
+          <t>🔴 BARRIERS</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>Proprietary starter culture (50 years old), master baker expertise, prime location</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="26" t="inlineStr">
+        <is>
+          <t>🟣 CUSTOMER</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" s="27" t="inlineStr">
+        <is>
+          <t>Health-conscious professionals, restaurants, hotels</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="26" t="inlineStr">
+        <is>
+          <t>⚫ KEY ACTIVITIES</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" s="27" t="inlineStr">
+        <is>
+          <t>Mixing dough, fermentation (24-48 hours), baking, retail sales</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="16">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
